--- a/[H] Requirements Elicitation/Analysis/Codes distraction_1-5.xlsx
+++ b/[H] Requirements Elicitation/Analysis/Codes distraction_1-5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lucasjohnston.sharepoint.com/sites/Personal/Gedeelde documenten/Studie/[15] Master Thesis/Requirements Elicitation/Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lucasjohnston.sharepoint.com/sites/Personal/Gedeelde documenten/Studie/[15] Master Thesis/[H] Requirements Elicitation/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="8_{7AC59874-9A4C-4F6E-A069-8E9CD20EC5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98CDE943-D304-4670-81A2-98DBF191F981}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="8_{7AC59874-9A4C-4F6E-A069-8E9CD20EC5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E248640F-73FF-4EF1-B754-04B218738D29}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{0B439AB1-6129-4EF9-9846-FE81885994CD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{0B439AB1-6129-4EF9-9846-FE81885994CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="4" r:id="rId1"/>
@@ -299,36 +299,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -432,6 +402,67 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2BD1-4972-9297-AAABD83773CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Relative count</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Code totals static'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.15021459227467812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11587982832618025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0085836909871244E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8669527896995708E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1502145922746781E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0085836909871244E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5793991416309016E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7210300429184553E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2918454935622317E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8626609442060089E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B9FA-47CE-B8D1-0DF3E8F80BB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1185,16 +1216,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>89535</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>280035</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>169545</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>360045</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4539,7 +4570,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7485,15 +7516,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007E3BDA08E1E5A249978B11231DCF019A" ma:contentTypeVersion="11" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="a7ca215021bbdd190a5af84d80b652fc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4a4afeb0-7e72-4d51-8cf1-662855e0da1b" xmlns:ns3="63184760-ab03-4f31-8d05-e57fd1de7cd7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f6025b888d8bdcce249ab03fa1f72" ns2:_="" ns3:_="">
     <xsd:import namespace="4a4afeb0-7e72-4d51-8cf1-662855e0da1b"/>
@@ -7688,14 +7710,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{879BFA3E-1BCD-46B1-9170-9ED08764B684}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB38382F-8BCA-4AE9-9B3B-8436EC9A5F85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12984AD9-BA28-4572-AE11-B0FA0DA1B6FD}"/>
 </file>
--- a/[H] Requirements Elicitation/Analysis/Codes distraction_1-5.xlsx
+++ b/[H] Requirements Elicitation/Analysis/Codes distraction_1-5.xlsx
@@ -7516,10 +7516,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007E3BDA08E1E5A249978B11231DCF019A" ma:contentTypeVersion="11" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="a7ca215021bbdd190a5af84d80b652fc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4a4afeb0-7e72-4d51-8cf1-662855e0da1b" xmlns:ns3="63184760-ab03-4f31-8d05-e57fd1de7cd7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f6025b888d8bdcce249ab03fa1f72" ns2:_="" ns3:_="">
-    <xsd:import namespace="4a4afeb0-7e72-4d51-8cf1-662855e0da1b"/>
-    <xsd:import namespace="63184760-ab03-4f31-8d05-e57fd1de7cd7"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004C9F4F6ABB567045B93F1D0C638A57F9" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="d068a515c1ed1831a1655483f43bd136">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e881998-9419-4d13-b84d-721ac971c709" xmlns:ns3="d6a03bd9-b31b-493a-b31e-bb4432e88c75" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61a36bc01df55011d34c3851fbde1e65" ns2:_="" ns3:_="">
+    <xsd:import namespace="0e881998-9419-4d13-b84d-721ac971c709"/>
+    <xsd:import namespace="d6a03bd9-b31b-493a-b31e-bb4432e88c75"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -7532,10 +7532,12 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -7543,7 +7545,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4a4afeb0-7e72-4d51-8cf1-662855e0da1b" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0e881998-9419-4d13-b84d-721ac971c709" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -7578,28 +7580,40 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5eaa6d45-cff0-4e56-a5c8-0425e41e0f9b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5eaa6d45-cff0-4e56-a5c8-0425e41e0f9b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="63184760-ab03-4f31-8d05-e57fd1de7cd7" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d6a03bd9-b31b-493a-b31e-bb4432e88c75" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="17" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e1844fe6-43bb-44ca-860b-cdc46f75e607}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="63184760-ab03-4f31-8d05-e57fd1de7cd7">
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{8e1fa4af-7bd6-40f1-95bc-3c1c2580a70b}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d6a03bd9-b31b-493a-b31e-bb4432e88c75">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -7720,7 +7734,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{879BFA3E-1BCD-46B1-9170-9ED08764B684}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{575FDD51-F13F-46D4-BD6A-3CCF4EE20602}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0e881998-9419-4d13-b84d-721ac971c709"/>
+    <ds:schemaRef ds:uri="d6a03bd9-b31b-493a-b31e-bb4432e88c75"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
